--- a/_estadistica-descriptiva/basesdedatos/terrorismo.xlsx
+++ b/_estadistica-descriptiva/basesdedatos/terrorismo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="terrorismo" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -25,16 +25,16 @@
     <t xml:space="preserve">Año</t>
   </si>
   <si>
+    <t xml:space="preserve">num_atent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_suicid</t>
+  </si>
+  <si>
     <t xml:space="preserve">vict_atent</t>
   </si>
   <si>
     <t xml:space="preserve">vict_suicid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_atent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_suicid</t>
   </si>
 </sst>
 </file>
@@ -132,13 +132,18 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="179" zoomScaleNormal="179" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.46428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,11 +420,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>